--- a/src/SPD-okresy.xlsx
+++ b/src/SPD-okresy.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="218">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -667,6 +668,12 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>podil</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1232,1082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B8</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B2">
+        <f>DATA!D8</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="str">
+        <f>DATA!B9</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B3" s="16">
+        <f>DATA!D9</f>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="str">
+        <f>DATA!B10</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B4" s="16">
+        <f>DATA!D10</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="str">
+        <f>DATA!B11</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B5" s="16">
+        <f>DATA!D11</f>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="str">
+        <f>DATA!B12</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B6" s="16">
+        <f>DATA!D12</f>
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="str">
+        <f>DATA!B13</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B7" s="16">
+        <f>DATA!D13</f>
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="str">
+        <f>DATA!B14</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B8" s="16">
+        <f>DATA!D14</f>
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="str">
+        <f>DATA!B15</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B9" s="16">
+        <f>DATA!D15</f>
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="str">
+        <f>DATA!B16</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B10" s="16">
+        <f>DATA!D16</f>
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="str">
+        <f>DATA!B17</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B11" s="16">
+        <f>DATA!D17</f>
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="str">
+        <f>DATA!B18</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B12" s="16">
+        <f>DATA!D18</f>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="str">
+        <f>DATA!B19</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B13" s="16">
+        <f>DATA!D19</f>
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="str">
+        <f>DATA!B20</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B14" s="16">
+        <f>DATA!D20</f>
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="str">
+        <f>DATA!B21</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B15" s="16">
+        <f>DATA!D21</f>
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="str">
+        <f>DATA!B22</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B16" s="16">
+        <f>DATA!D22</f>
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="str">
+        <f>DATA!B23</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B17" s="16">
+        <f>DATA!D23</f>
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="str">
+        <f>DATA!B24</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B18" s="16">
+        <f>DATA!D24</f>
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="str">
+        <f>DATA!B25</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B19" s="16">
+        <f>DATA!D25</f>
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="str">
+        <f>DATA!B26</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B20" s="16">
+        <f>DATA!D26</f>
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="str">
+        <f>DATA!B27</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B21" s="16">
+        <f>DATA!D27</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="str">
+        <f>DATA!B28</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B22" s="16">
+        <f>DATA!D28</f>
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="str">
+        <f>DATA!B29</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B23" s="16">
+        <f>DATA!D29</f>
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="str">
+        <f>DATA!B30</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B24" s="16">
+        <f>DATA!D30</f>
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="str">
+        <f>DATA!B31</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B25" s="16">
+        <f>DATA!D31</f>
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="str">
+        <f>DATA!B32</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B26" s="16">
+        <f>DATA!D32</f>
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="str">
+        <f>DATA!B33</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B27" s="16">
+        <f>DATA!D33</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="str">
+        <f>DATA!B34</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B28" s="16">
+        <f>DATA!D34</f>
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="str">
+        <f>DATA!B35</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B29" s="16">
+        <f>DATA!D35</f>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="str">
+        <f>DATA!B36</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B30" s="16">
+        <f>DATA!D36</f>
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="str">
+        <f>DATA!B37</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B31" s="16">
+        <f>DATA!D37</f>
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="str">
+        <f>DATA!B38</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B32" s="16">
+        <f>DATA!D38</f>
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="str">
+        <f>DATA!B39</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B33" s="16">
+        <f>DATA!D39</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="str">
+        <f>DATA!B40</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="16">
+        <f>DATA!D40</f>
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="str">
+        <f>DATA!B41</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="16">
+        <f>DATA!D41</f>
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="str">
+        <f>DATA!B42</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B36" s="16">
+        <f>DATA!D42</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="str">
+        <f>DATA!B43</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B37" s="16">
+        <f>DATA!D43</f>
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="str">
+        <f>DATA!B44</f>
+        <v>Most</v>
+      </c>
+      <c r="B38" s="16">
+        <f>DATA!D44</f>
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="str">
+        <f>DATA!B45</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B39" s="16">
+        <f>DATA!D45</f>
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="str">
+        <f>DATA!B46</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B40" s="16">
+        <f>DATA!D46</f>
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="str">
+        <f>DATA!B47</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B41" s="16">
+        <f>DATA!D47</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="str">
+        <f>DATA!B48</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B42" s="16">
+        <f>DATA!D48</f>
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="str">
+        <f>DATA!B49</f>
+        <v>Opava</v>
+      </c>
+      <c r="B43" s="16">
+        <f>DATA!D49</f>
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="str">
+        <f>DATA!B50</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B44" s="16">
+        <f>DATA!D50</f>
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="str">
+        <f>DATA!B51</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B45" s="16">
+        <f>DATA!D51</f>
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="str">
+        <f>DATA!B52</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B46" s="16">
+        <f>DATA!D52</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="str">
+        <f>DATA!B53</f>
+        <v>Písek</v>
+      </c>
+      <c r="B47" s="16">
+        <f>DATA!D53</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="str">
+        <f>DATA!B54</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B48" s="16">
+        <f>DATA!D54</f>
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="str">
+        <f>DATA!B55</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B49" s="16">
+        <f>DATA!D55</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="str">
+        <f>DATA!B56</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B50" s="16">
+        <f>DATA!D56</f>
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="str">
+        <f>DATA!B57</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B51" s="16">
+        <f>DATA!D57</f>
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="str">
+        <f>DATA!B58</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B52" s="16">
+        <f>DATA!D58</f>
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="str">
+        <f>DATA!B59</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B53" s="16">
+        <f>DATA!D59</f>
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="str">
+        <f>DATA!B60</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B54" s="16">
+        <f>DATA!D60</f>
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="str">
+        <f>DATA!B61</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B55" s="16">
+        <f>DATA!D61</f>
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="str">
+        <f>DATA!B62</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B56" s="16">
+        <f>DATA!D62</f>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="str">
+        <f>DATA!B63</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B57" s="16">
+        <f>DATA!D63</f>
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="str">
+        <f>DATA!B64</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B58" s="16">
+        <f>DATA!D64</f>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="str">
+        <f>DATA!B65</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B59" s="16">
+        <f>DATA!D65</f>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="str">
+        <f>DATA!B66</f>
+        <v>Semily</v>
+      </c>
+      <c r="B60" s="16">
+        <f>DATA!D66</f>
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="str">
+        <f>DATA!B67</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B61" s="16">
+        <f>DATA!D67</f>
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="str">
+        <f>DATA!B68</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B62" s="16">
+        <f>DATA!D68</f>
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="str">
+        <f>DATA!B69</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B63" s="16">
+        <f>DATA!D69</f>
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="str">
+        <f>DATA!B70</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B64" s="16">
+        <f>DATA!D70</f>
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="str">
+        <f>DATA!B71</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B65" s="16">
+        <f>DATA!D71</f>
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="str">
+        <f>DATA!B72</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B66" s="16">
+        <f>DATA!D72</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="str">
+        <f>DATA!B73</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B67" s="16">
+        <f>DATA!D73</f>
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="str">
+        <f>DATA!B74</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B68" s="16">
+        <f>DATA!D74</f>
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="str">
+        <f>DATA!B75</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B69" s="16">
+        <f>DATA!D75</f>
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="str">
+        <f>DATA!B76</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="16">
+        <f>DATA!D76</f>
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="str">
+        <f>DATA!B77</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B71" s="16">
+        <f>DATA!D77</f>
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="str">
+        <f>DATA!B78</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B72" s="16">
+        <f>DATA!D78</f>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="str">
+        <f>DATA!B79</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B73" s="16">
+        <f>DATA!D79</f>
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="str">
+        <f>DATA!B80</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B74" s="16">
+        <f>DATA!D80</f>
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="str">
+        <f>DATA!B81</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B75" s="16">
+        <f>DATA!D81</f>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="str">
+        <f>DATA!B82</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B76" s="16">
+        <f>DATA!D82</f>
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="str">
+        <f>DATA!B83</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B77" s="16">
+        <f>DATA!D83</f>
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="str">
+        <f>DATA!B84</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B78" s="16">
+        <f>DATA!D84</f>
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2168,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2257,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
